--- a/data/general/all_env_averages.xlsx
+++ b/data/general/all_env_averages.xlsx
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="all_env_averages" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_env_averages!$A$1:$C$1224</definedName>
+  </definedNames>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -910,7 +913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="B522" sqref="B522"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1284,9 +1289,6 @@
       <c r="A34" s="1">
         <v>42388</v>
       </c>
-      <c r="B34">
-        <v>1.2590412284482699</v>
-      </c>
       <c r="C34" t="s">
         <v>3</v>
       </c>
